--- a/result/with_base/134/valence/s15_4.xlsx
+++ b/result/with_base/134/valence/s15_4.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8849999904632568</v>
+        <v>0.875</v>
       </c>
       <c r="C2" t="n">
-        <v>41716.78515625</v>
+        <v>11281.92236328125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8595454530282454</v>
+        <v>0.8446034648839165</v>
       </c>
       <c r="E2" t="n">
-        <v>41720.03693181818</v>
+        <v>11282.21438419118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8844866156578064</v>
       </c>
       <c r="C3" t="n">
-        <v>40935.92578125</v>
+        <v>10977.58935546875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9009090770374645</v>
+        <v>0.8971244762925541</v>
       </c>
       <c r="E3" t="n">
-        <v>40938.20419034091</v>
+        <v>10977.16153492647</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C4" t="n">
-        <v>40162.513671875</v>
+        <v>10677.0986328125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9205681844191118</v>
+        <v>0.9114364490789526</v>
       </c>
       <c r="E4" t="n">
-        <v>40163.53018465909</v>
+        <v>10676.30284926471</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.93359375</v>
       </c>
       <c r="C5" t="n">
-        <v>39396.404296875</v>
+        <v>10381.501953125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9365909099578857</v>
+        <v>0.9195772058823529</v>
       </c>
       <c r="E5" t="n">
-        <v>39397.10120738636</v>
+        <v>10380.86104090074</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C6" t="n">
-        <v>38641.544921875</v>
+        <v>10091.8359375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9447727257555182</v>
+        <v>0.9355961119427401</v>
       </c>
       <c r="E6" t="n">
-        <v>38642.18856534091</v>
+        <v>10090.99350873162</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9157366156578064</v>
       </c>
       <c r="C7" t="n">
-        <v>37898.76171875</v>
+        <v>9809.00244140625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9480681852860884</v>
+        <v>0.9368434863931993</v>
       </c>
       <c r="E7" t="n">
-        <v>37899.37819602273</v>
+        <v>9807.941348805147</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C8" t="n">
-        <v>37168.96875</v>
+        <v>9531.74267578125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9629545374350115</v>
+        <v>0.9545693292337305</v>
       </c>
       <c r="E8" t="n">
-        <v>37168.00745738636</v>
+        <v>9530.677734375</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.94140625</v>
       </c>
       <c r="C9" t="n">
-        <v>36450.57421875</v>
+        <v>9261.306640625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.96477271751924</v>
+        <v>0.9590992647058824</v>
       </c>
       <c r="E9" t="n">
-        <v>36450.00745738636</v>
+        <v>9260.349322150736</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C10" t="n">
-        <v>35745.37890625</v>
+        <v>8997.669921875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9717045534740795</v>
+        <v>0.9646796233513776</v>
       </c>
       <c r="E10" t="n">
-        <v>35744.11186079546</v>
+        <v>8996.738453584559</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.94140625</v>
       </c>
       <c r="C11" t="n">
-        <v>35052.36328125</v>
+        <v>8740.5830078125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9718181870200417</v>
+        <v>0.9667148099226111</v>
       </c>
       <c r="E11" t="n">
-        <v>35050.81605113636</v>
+        <v>8739.588809742647</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C12" t="n">
-        <v>34370.85546875</v>
+        <v>8489.74169921875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9720454595305703</v>
+        <v>0.9707851900773889</v>
       </c>
       <c r="E12" t="n">
-        <v>34369.81605113636</v>
+        <v>8488.907169117647</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C13" t="n">
-        <v>33701.931640625</v>
+        <v>8245.55810546875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9772727381099354</v>
+        <v>0.9703912805108463</v>
       </c>
       <c r="E13" t="n">
-        <v>33700.94850852273</v>
+        <v>8244.635225183823</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.93359375</v>
       </c>
       <c r="C14" t="n">
-        <v>33045.931640625</v>
+        <v>8007.482421875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9784091006625782</v>
+        <v>0.9661239490789526</v>
       </c>
       <c r="E14" t="n">
-        <v>33044.26882102273</v>
+        <v>8006.72518382353</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.94140625</v>
       </c>
       <c r="C15" t="n">
-        <v>32401.111328125</v>
+        <v>7775.7333984375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9739772785793651</v>
+        <v>0.9744616606656242</v>
       </c>
       <c r="E15" t="n">
-        <v>32399.66441761364</v>
+        <v>7774.848431755515</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C16" t="n">
-        <v>31768.1865234375</v>
+        <v>7549.746826171875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.978295461698012</v>
+        <v>0.9824711119427401</v>
       </c>
       <c r="E16" t="n">
-        <v>31766.80450994318</v>
+        <v>7548.988080193015</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C17" t="n">
-        <v>31146.921875</v>
+        <v>7329.921630859375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9772727435285394</v>
+        <v>0.9759716391563416</v>
       </c>
       <c r="E17" t="n">
-        <v>31145.66104403409</v>
+        <v>7329.226619944853</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.94140625</v>
       </c>
       <c r="C18" t="n">
-        <v>30537.169921875</v>
+        <v>7115.78759765625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9837500127879056</v>
+        <v>0.9854910724303302</v>
       </c>
       <c r="E18" t="n">
-        <v>30535.98135653409</v>
+        <v>7115.09090647978</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C19" t="n">
-        <v>29938.74609375</v>
+        <v>6907.3916015625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9861363768577576</v>
+        <v>0.9852284648839165</v>
       </c>
       <c r="E19" t="n">
-        <v>29937.41495028409</v>
+        <v>6906.751407398897</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C20" t="n">
-        <v>29351.390625</v>
+        <v>6704.505615234375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9906818270683289</v>
+        <v>0.984112395959742</v>
       </c>
       <c r="E20" t="n">
-        <v>29349.91352982954</v>
+        <v>6703.892118566177</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C21" t="n">
-        <v>28774.9609375</v>
+        <v>6507.13525390625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9876136454668912</v>
+        <v>0.9827993687461404</v>
       </c>
       <c r="E21" t="n">
-        <v>28773.46573153409</v>
+        <v>6506.523236443015</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C22" t="n">
-        <v>28209.0224609375</v>
+        <v>6315.05029296875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9918181896209717</v>
+        <v>0.980042015804964</v>
       </c>
       <c r="E22" t="n">
-        <v>28207.48544034091</v>
+        <v>6314.521053538603</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C23" t="n">
-        <v>27653.1630859375</v>
+        <v>6128.239501953125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9876136454668912</v>
+        <v>0.9656643902554232</v>
       </c>
       <c r="E23" t="n">
-        <v>27652.32776988636</v>
+        <v>6127.71622242647</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C24" t="n">
-        <v>27108.1953125</v>
+        <v>5946.49072265625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9832954677668485</v>
+        <v>0.9682904411764706</v>
       </c>
       <c r="E24" t="n">
-        <v>27107.45685369318</v>
+        <v>5945.919088924632</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9453125</v>
       </c>
       <c r="C25" t="n">
-        <v>26573.611328125</v>
+        <v>5769.54931640625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9807954701510343</v>
+        <v>0.9763655452167287</v>
       </c>
       <c r="E25" t="n">
-        <v>26572.67649147727</v>
+        <v>5769.014677159927</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.94140625</v>
       </c>
       <c r="C26" t="n">
-        <v>26049.19921875</v>
+        <v>5597.468994140625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9792045571587302</v>
+        <v>0.9843093472368577</v>
       </c>
       <c r="E26" t="n">
-        <v>26048.03995028409</v>
+        <v>5596.948012408088</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C27" t="n">
-        <v>25533.716796875</v>
+        <v>5430.054931640625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9905681881037626</v>
+        <v>0.9860819332739886</v>
       </c>
       <c r="E27" t="n">
-        <v>25532.8046875</v>
+        <v>5429.620749080882</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C28" t="n">
-        <v>25028.24609375</v>
+        <v>5267.25146484375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9906818270683289</v>
+        <v>0.9744616606656242</v>
       </c>
       <c r="E28" t="n">
-        <v>25027.50497159091</v>
+        <v>5266.897920496323</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C29" t="n">
-        <v>24532.525390625</v>
+        <v>5108.958984375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E29" t="n">
-        <v>24531.63334517046</v>
+        <v>5108.520680147059</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C30" t="n">
-        <v>24045.580078125</v>
+        <v>4955.005126953125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9938636422157288</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E30" t="n">
-        <v>24044.95578835227</v>
+        <v>4954.540900735294</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C31" t="n">
-        <v>23568.025390625</v>
+        <v>4805.34521484375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9896271018420949</v>
       </c>
       <c r="E31" t="n">
-        <v>23567.47159090909</v>
+        <v>4804.819623161765</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C32" t="n">
-        <v>23099.443359375</v>
+        <v>4659.66064453125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.9885110294117647</v>
       </c>
       <c r="E32" t="n">
-        <v>23099.01793323864</v>
+        <v>4659.220875459559</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C33" t="n">
-        <v>22639.861328125</v>
+        <v>4517.969970703125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.991931823166934</v>
+        <v>0.9889049354721519</v>
       </c>
       <c r="E33" t="n">
-        <v>22639.29758522727</v>
+        <v>4517.62833180147</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C34" t="n">
-        <v>22189.14453125</v>
+        <v>4380.24755859375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E34" t="n">
-        <v>22188.18501420454</v>
+        <v>4379.967514935662</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9453125</v>
       </c>
       <c r="C35" t="n">
-        <v>21746.568359375</v>
+        <v>4246.478271484375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.9873949569814345</v>
       </c>
       <c r="E35" t="n">
-        <v>21745.66530539773</v>
+        <v>4246.156881893382</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.94140625</v>
       </c>
       <c r="C36" t="n">
-        <v>21312.298828125</v>
+        <v>4116.369873046875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9908088235294118</v>
       </c>
       <c r="E36" t="n">
-        <v>21311.31942471591</v>
+        <v>4116.049661075368</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.94921875</v>
       </c>
       <c r="C37" t="n">
-        <v>20885.9228515625</v>
+        <v>3989.781127929688</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9829306707662695</v>
       </c>
       <c r="E37" t="n">
-        <v>20885.25834517046</v>
+        <v>3989.601505055147</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C38" t="n">
-        <v>20467.75</v>
+        <v>3866.922607421875</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9929545521736145</v>
+        <v>0.9871323529411765</v>
       </c>
       <c r="E38" t="n">
-        <v>20467.22727272727</v>
+        <v>3866.647245519302</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C39" t="n">
-        <v>20057.8515625</v>
+        <v>3747.46630859375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E39" t="n">
-        <v>20057.05433238636</v>
+        <v>3747.154627182904</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C40" t="n">
-        <v>19655.744140625</v>
+        <v>3631.256103515625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.9818802510990816</v>
       </c>
       <c r="E40" t="n">
-        <v>19654.69495738636</v>
+        <v>3631.071145450368</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C41" t="n">
-        <v>19260.6025390625</v>
+        <v>3518.379150390625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9938636422157288</v>
+        <v>0.9859506312538596</v>
       </c>
       <c r="E41" t="n">
-        <v>19259.81285511364</v>
+        <v>3518.203010110294</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C42" t="n">
-        <v>18872.99609375</v>
+        <v>3408.978759765625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9711790961377761</v>
       </c>
       <c r="E42" t="n">
-        <v>18872.39080255682</v>
+        <v>3408.603486902573</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C43" t="n">
-        <v>18493.0166015625</v>
+        <v>3302.27685546875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9755777295897988</v>
       </c>
       <c r="E43" t="n">
-        <v>18492.31764914773</v>
+        <v>3302.069163602941</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C44" t="n">
-        <v>18119.88671875</v>
+        <v>3198.7314453125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.9815519942956812</v>
       </c>
       <c r="E44" t="n">
-        <v>18119.44975142046</v>
+        <v>3198.53218347886</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C45" t="n">
-        <v>17754.1943359375</v>
+        <v>3098.1748046875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9726890746284934</v>
       </c>
       <c r="E45" t="n">
-        <v>17753.55735085227</v>
+        <v>3098.030129825368</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C46" t="n">
-        <v>17395.240234375</v>
+        <v>3000.501586914062</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9928409132090482</v>
+        <v>0.9834558823529411</v>
       </c>
       <c r="E46" t="n">
-        <v>17394.67240767046</v>
+        <v>3000.256893382353</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.94921875</v>
       </c>
       <c r="C47" t="n">
-        <v>17043.2490234375</v>
+        <v>2905.55029296875</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9864101900773889</v>
       </c>
       <c r="E47" t="n">
-        <v>17042.49982244318</v>
+        <v>2905.347038717831</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9453125</v>
       </c>
       <c r="C48" t="n">
-        <v>16697.603515625</v>
+        <v>2813.404418945312</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.984506302020129</v>
       </c>
       <c r="E48" t="n">
-        <v>16697.0390625</v>
+        <v>2813.187787224265</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C49" t="n">
-        <v>16358.62255859375</v>
+        <v>2723.812744140625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9786633393343758</v>
       </c>
       <c r="E49" t="n">
-        <v>16358.13662997159</v>
+        <v>2723.684153837316</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C50" t="n">
-        <v>16026.39599609375</v>
+        <v>2636.993896484375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9690782568034004</v>
       </c>
       <c r="E50" t="n">
-        <v>16025.65163352273</v>
+        <v>2636.783949908088</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,916 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C51" t="n">
-        <v>15700.2939453125</v>
+        <v>2552.48388671875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9694721628637875</v>
       </c>
       <c r="E51" t="n">
-        <v>15699.48304332386</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15380.03466796875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15379.50257457386</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15066.13916015625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15065.57776988636</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14758.1279296875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14757.64825994318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14456.05908203125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14455.57191051136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14159.7841796875</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14159.25887784091</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13869.00439453125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13868.60520241477</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13583.93603515625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13583.46599786932</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13303.99853515625</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13303.79225852273</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13029.7392578125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13029.43714488636</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12760.66064453125</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9920454621315002</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12760.37739701705</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12496.77587890625</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12496.40474076705</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12237.8291015625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12237.50470525568</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11983.9384765625</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11983.56640625</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11734.896484375</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11734.53426846591</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11490.4912109375</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11490.2587890625</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11250.79541015625</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11250.67409446023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11015.966796875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11015.71173650568</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10785.544921875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10785.27814275568</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10559.6171875</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10559.28675426136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10337.8369140625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10337.67693536932</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10120.48974609375</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.994772732257843</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10120.33354048295</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9907.34228515625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9907.207386363636</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9698.35986328125</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9698.18448153409</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9493.36767578125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9493.239524147728</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9292.431640625</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9292.27530184659</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9095.38134765625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9095.231001420454</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8902.17626953125</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8902.005415482954</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8712.69873046875</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8712.565962357954</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8526.94970703125</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8526.810014204546</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8344.8642578125</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8344.700639204546</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7723577235772358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7886178861788617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7967479674796748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.008547008547008548</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8048780487804879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.008547008547008548</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9186991869918699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.0170940170940171</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9186991869918699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.0170940170940171</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.943089430894309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.943089430894309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.975609756097561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.05982905982905983</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.975609756097561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.05982905982905983</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.983739837398374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.08547008547008547</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.983739837398374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.08547008547008547</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9918699186991869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.2478632478632479</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9918699186991869</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.2478632478632479</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.994545201862275</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9916267111389063</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.008130081300813009</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9916267111389063</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7948717948717948</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.008130081300813009</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9916267111389063</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9145299145299145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.01626016260162602</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9916267111389063</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9145299145299145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01626016260162602</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9916267111389063</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9401709401709402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.02439024390243903</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9916267111389063</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9401709401709402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.02439024390243903</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9916267111389063</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.05691056910569105</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9916267111389063</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.05691056910569105</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9916267111389063</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9829059829059829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.08130081300813008</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9916267111389063</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9829059829059829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.08130081300813008</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9916267111389063</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9914529914529915</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2032520325203252</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9916267111389063</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9914529914529915</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.2032520325203252</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9916267111389063</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9916267111389063</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2552.357838350184</v>
       </c>
     </row>
   </sheetData>
